--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1614810.685090059</v>
+        <v>-1617670.517325329</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>152.0747039460365</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>67.76654635343832</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>97.40599082265642</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>106.267978272003</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>17.727471611456</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="V4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42254329489922</v>
+        <v>12.42254329489923</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>34.66253762724344</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3876437926215</v>
       </c>
       <c r="T5" t="n">
         <v>210.487799365049</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>88.73562238760289</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>153.3590092705662</v>
+        <v>382.6612299361387</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>16.17423290752121</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>46.46465121295505</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.9998595423836</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442028</v>
+        <v>143.0590333442029</v>
       </c>
       <c r="T6" t="n">
-        <v>153.4803206559251</v>
+        <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
         <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.4997808249618</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>43.32130647461297</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>225.7939473685572</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1181,10 +1181,10 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>101.0628932818818</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>192.5104924500889</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1215,10 +1215,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.27697994470635</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>107.9150599581246</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.1343455414015</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>111.9404544080143</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187833</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1430,10 +1430,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784713</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.594095449514112</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,13 +1610,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>192.8170508184423</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206806</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I19" t="n">
-        <v>1.839588425939309</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>158.9570581017788</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>46.15319674220952</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541846</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652579</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545299</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,7 +3439,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541846</v>
       </c>
       <c r="I37" t="n">
         <v>56.98118882652579</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,16 +3907,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808201</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C2" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D2" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656065</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652794</v>
+        <v>681.6512917426155</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652794</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652794</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652794</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652794</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.8429936158253</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="C3" t="n">
-        <v>181.8429936158253</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="D3" t="n">
-        <v>181.8429936158253</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>181.8429936158253</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8429936158253</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140242</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017059</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652794</v>
+        <v>732.1958116840118</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652794</v>
+        <v>542.7760266675268</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487947</v>
+        <v>353.3562416510418</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487947</v>
+        <v>353.3562416510418</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487947</v>
+        <v>353.3562416510418</v>
       </c>
       <c r="X3" t="n">
-        <v>371.26277863231</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158253</v>
+        <v>163.9364566345569</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1163.122890819702</v>
+        <v>408.3721212810463</v>
       </c>
       <c r="C5" t="n">
-        <v>794.1603738792908</v>
+        <v>408.3721212810463</v>
       </c>
       <c r="D5" t="n">
-        <v>435.8946752725403</v>
+        <v>50.10642267429581</v>
       </c>
       <c r="E5" t="n">
-        <v>50.10642267429603</v>
+        <v>50.10642267429581</v>
       </c>
       <c r="F5" t="n">
-        <v>43.16092192509256</v>
+        <v>43.16092192509234</v>
       </c>
       <c r="G5" t="n">
-        <v>30.61289839489133</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="H5" t="n">
-        <v>30.61289839489133</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489133</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121586</v>
+        <v>93.3858082712145</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235861</v>
+        <v>238.2046462235844</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190668</v>
+        <v>454.7669823190637</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643124</v>
+        <v>727.4037457643076</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453896</v>
+        <v>1009.065865453889</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831939</v>
+        <v>1261.69615683193</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855784</v>
+        <v>1442.809264855773</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744566</v>
+        <v>1530.644919744555</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744566</v>
+        <v>1495.632255474612</v>
       </c>
       <c r="S5" t="n">
-        <v>1530.644919744566</v>
+        <v>1350.796251643681</v>
       </c>
       <c r="T5" t="n">
-        <v>1318.030980991992</v>
+        <v>1138.182312891106</v>
       </c>
       <c r="U5" t="n">
-        <v>1318.030980991992</v>
+        <v>884.5305579716944</v>
       </c>
       <c r="V5" t="n">
-        <v>1318.030980991992</v>
+        <v>794.8986161660349</v>
       </c>
       <c r="W5" t="n">
-        <v>1318.030980991992</v>
+        <v>794.8986161660349</v>
       </c>
       <c r="X5" t="n">
-        <v>1318.030980991992</v>
+        <v>794.8986161660349</v>
       </c>
       <c r="Y5" t="n">
-        <v>1163.122890819702</v>
+        <v>408.3721212810463</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.54688951908835</v>
+        <v>221.4035366735143</v>
       </c>
       <c r="C6" t="n">
-        <v>77.54688951908835</v>
+        <v>46.95050739238727</v>
       </c>
       <c r="D6" t="n">
-        <v>77.54688951908835</v>
+        <v>46.95050739238727</v>
       </c>
       <c r="E6" t="n">
-        <v>77.54688951908835</v>
+        <v>46.95050739238727</v>
       </c>
       <c r="F6" t="n">
-        <v>77.54688951908835</v>
+        <v>46.95050739238727</v>
       </c>
       <c r="G6" t="n">
-        <v>77.54688951908835</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="H6" t="n">
-        <v>77.54688951908835</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489133</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275346</v>
+        <v>49.18216652275269</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477059</v>
+        <v>159.0748281477042</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543736</v>
+        <v>353.1616144543706</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642264</v>
+        <v>599.008607764222</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621785</v>
+        <v>865.7710843621726</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.58683897055</v>
+        <v>1087.586838970543</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.280471422855</v>
+        <v>1246.280471422847</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.443765680493</v>
+        <v>1302.443765680484</v>
       </c>
       <c r="R6" t="n">
-        <v>1302.443765680493</v>
+        <v>1251.938857051814</v>
       </c>
       <c r="S6" t="n">
-        <v>1157.93969159544</v>
+        <v>1107.43478296676</v>
       </c>
       <c r="T6" t="n">
-        <v>1002.909064670263</v>
+        <v>911.5224021523671</v>
       </c>
       <c r="U6" t="n">
-        <v>774.7878546845654</v>
+        <v>683.4011921666698</v>
       </c>
       <c r="V6" t="n">
-        <v>539.6357464528228</v>
+        <v>683.4011921666698</v>
       </c>
       <c r="W6" t="n">
-        <v>285.3983897246212</v>
+        <v>429.1638354384682</v>
       </c>
       <c r="X6" t="n">
-        <v>77.54688951908835</v>
+        <v>429.1638354384682</v>
       </c>
       <c r="Y6" t="n">
-        <v>77.54688951908835</v>
+        <v>221.4035366735143</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>180.729537807227</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="C7" t="n">
-        <v>180.729537807227</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="D7" t="n">
-        <v>30.61289839489133</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="E7" t="n">
-        <v>30.61289839489133</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="F7" t="n">
-        <v>30.61289839489133</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="G7" t="n">
-        <v>30.61289839489133</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="H7" t="n">
-        <v>30.61289839489133</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489133</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489133</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="K7" t="n">
-        <v>51.490548817133</v>
+        <v>51.49054881713221</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363493</v>
+        <v>108.1125511363478</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055998</v>
+        <v>171.0707966055975</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221372</v>
+        <v>240.3895616221342</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645267</v>
+        <v>284.1035717645231</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354713</v>
+        <v>302.4464881354671</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354713</v>
+        <v>258.6875927065651</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354713</v>
+        <v>258.6875927065651</v>
       </c>
       <c r="S7" t="n">
-        <v>302.4464881354713</v>
+        <v>258.6875927065651</v>
       </c>
       <c r="T7" t="n">
-        <v>302.4464881354713</v>
+        <v>258.6875927065651</v>
       </c>
       <c r="U7" t="n">
-        <v>302.4464881354713</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="V7" t="n">
-        <v>302.4464881354713</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="W7" t="n">
-        <v>302.4464881354713</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="X7" t="n">
-        <v>302.4464881354713</v>
+        <v>30.61289839489109</v>
       </c>
       <c r="Y7" t="n">
-        <v>302.4464881354713</v>
+        <v>30.61289839489109</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.399693788884</v>
+        <v>431.2678554838969</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.399693788884</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821335</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
         <v>55.35983779428172</v>
@@ -4805,16 +4805,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1934.241441055024</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1934.241441055024</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1934.241441055024</v>
       </c>
       <c r="W8" t="n">
-        <v>1974.004784025776</v>
+        <v>1581.47278578491</v>
       </c>
       <c r="X8" t="n">
-        <v>1600.539025764696</v>
+        <v>1208.00702752383</v>
       </c>
       <c r="Y8" t="n">
-        <v>1210.399693788884</v>
+        <v>817.8676955480187</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>364.3567837923351</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="E9" t="n">
         <v>189.9037545112081</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1745.745249409541</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1745.745249409541</v>
+        <v>1625.233187903851</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1430.522866377827</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1202.421276511091</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1202.421276511091</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>948.1839197828899</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>740.3324195773571</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>532.5721208124032</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.7597050795874</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>211.8235221516805</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
@@ -4984,28 +4984,28 @@
         <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>156.4403626067944</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>156.4403626067944</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>156.4403626067944</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168579</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,19 +5303,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570823</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279808</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580266</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580266</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.19838578386</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,10 +5501,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797182</v>
@@ -5513,52 +5513,52 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1018.438627038651</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>849.5024441107445</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>699.3858046984087</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>551.4727111160156</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>404.5827636181052</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>237.3866643329852</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H19" t="n">
-        <v>95.67483317518324</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1938.286391947399</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1648.869221910438</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1420.879671012421</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1200.087091868891</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452619</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718135</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5981,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>641.1291986799072</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>822.7776635101469</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,16 +6838,16 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7078,13 +7078,13 @@
         <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,16 +7488,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.094482495414</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,22 +7582,22 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7731,10 +7731,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580123</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,46 +7804,46 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>229.8556661262253</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>113.395378721196</v>
+        <v>91.00926683661478</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871021</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>182.2055135121489</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>234.0491352390156</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.585362777349432e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>24.58839950884595</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I19" t="n">
-        <v>79.42624789262624</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.62759525031595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>171.2522535850787</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1285894.549672056</v>
+        <v>1285894.549672055</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1285894.549672056</v>
+        <v>1285894.549672055</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1285894.549672056</v>
+        <v>1285894.549672055</v>
       </c>
     </row>
     <row r="8">
@@ -26320,7 +26320,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.654945751</v>
       </c>
       <c r="F2" t="n">
         <v>141250.6549457511</v>
@@ -26335,19 +26335,19 @@
         <v>141250.6549457511</v>
       </c>
       <c r="J2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="K2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="M2" t="n">
         <v>143682.3097262496</v>
       </c>
-      <c r="M2" t="n">
-        <v>143682.3097262497</v>
-      </c>
       <c r="N2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262497</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996538</v>
+        <v>216004.04689965</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960587</v>
+        <v>167084.5112960619</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574265</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838341</v>
+        <v>50221.6701083826</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064524</v>
+        <v>59784.02116064593</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>196327.1528969922</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468109</v>
+        <v>221112.0537468117</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687982</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687982</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687979</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687969</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997315</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997316</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997316</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997315</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997313</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790129</v>
+        <v>72511.97598790105</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726193.3572034258</v>
+        <v>-726553.4402191436</v>
       </c>
       <c r="C6" t="n">
-        <v>-365945.7669081163</v>
+        <v>-365945.7669081132</v>
       </c>
       <c r="D6" t="n">
-        <v>-282804.2735145789</v>
+        <v>-282804.2735145821</v>
       </c>
       <c r="E6" t="n">
-        <v>-576751.7224593007</v>
+        <v>-576786.4603847365</v>
       </c>
       <c r="F6" t="n">
-        <v>24691.48511496418</v>
+        <v>24656.7471895286</v>
       </c>
       <c r="G6" t="n">
-        <v>24691.48511496439</v>
+        <v>24656.7471895286</v>
       </c>
       <c r="H6" t="n">
-        <v>24691.48511496415</v>
+        <v>24656.74718952866</v>
       </c>
       <c r="I6" t="n">
-        <v>24691.48511496426</v>
+        <v>24656.74718952864</v>
       </c>
       <c r="J6" t="n">
-        <v>-24373.45961358036</v>
+        <v>-24408.19753901611</v>
       </c>
       <c r="K6" t="n">
-        <v>-25530.18499341905</v>
+        <v>-25564.92291885402</v>
       </c>
       <c r="L6" t="n">
-        <v>-42693.3265582842</v>
+        <v>-42693.32655828483</v>
       </c>
       <c r="M6" t="n">
-        <v>-140055.6859492368</v>
+        <v>-140055.685949237</v>
       </c>
       <c r="N6" t="n">
-        <v>17090.69460236109</v>
+        <v>17090.69460236107</v>
       </c>
       <c r="O6" t="n">
-        <v>17090.69460236124</v>
+        <v>17090.69460236111</v>
       </c>
       <c r="P6" t="n">
-        <v>17090.69460236104</v>
+        <v>17090.69460236112</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836642</v>
+        <v>716.4483122836615</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361416</v>
+        <v>382.6612299361387</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920398</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707598</v>
+        <v>167.9783713707567</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540199</v>
+        <v>137.2623522540226</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039894</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,25 +27009,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698217</v>
+        <v>195.1356427698186</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900217</v>
+        <v>159.4537267900245</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734848</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27036,22 +27036,22 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698217</v>
+        <v>195.1356427698183</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900217</v>
+        <v>159.4537267900247</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734848</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698217</v>
+        <v>195.1356427698186</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900217</v>
+        <v>159.4537267900245</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734848</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>45.38043446885715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>116.0378902335504</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,16 +27470,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>29.89581109377231</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>132.0427730794936</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681112</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377108</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715764</v>
+        <v>18.24739803715735</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098452</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,16 +27591,16 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>199.9216970693937</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9780130577769</v>
+        <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476382</v>
+        <v>99.43720189476424</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724276</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926212</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1152373702176</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>239.016636082532</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>232.8789293854874</v>
+        <v>3.576708719914905</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>119.6282444896453</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075468</v>
+        <v>97.35224439075473</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>46.46465121295525</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238325</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>40.47293635032401</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.33219935697547</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5978353037441</v>
+        <v>116.5978353037443</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037881</v>
+        <v>35.65413415037915</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.32130647461256</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.202352810694</v>
+        <v>119.2023528106943</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5013289443856</v>
+        <v>201.5013289443857</v>
       </c>
       <c r="T7" t="n">
         <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485590306925</v>
+        <v>60.45461166213528</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>107.0093645877221</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>156.7304762673241</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27935,10 +27935,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.39188093250797</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>29.6599539351746</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.6976346405358</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596159</v>
@@ -28068,7 +28068,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>106.6441989440805</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.303244574422495e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28330,13 +28330,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28381,16 +28381,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>5.470445001202314e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.411577144875051e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28615,13 +28615,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235834</v>
+        <v>2.880194220235823</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799024</v>
+        <v>29.49678905799013</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756421</v>
+        <v>111.0386876756417</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997413</v>
+        <v>244.4528841997404</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423243</v>
+        <v>366.3715055423228</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098668</v>
+        <v>454.516249409865</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739857</v>
+        <v>505.7369033739838</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022308</v>
+        <v>513.9202552022289</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247608</v>
+        <v>485.2803239247589</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126885</v>
+        <v>414.1755291126869</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004926</v>
+        <v>311.0285736004914</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868894</v>
+        <v>180.9230001868887</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362414</v>
+        <v>65.63242579362388</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908237</v>
+        <v>12.60805019908232</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188667</v>
+        <v>0.2304155376188658</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044108</v>
+        <v>1.541039766044102</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574178</v>
+        <v>14.88319984574172</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704495</v>
+        <v>53.05772878704475</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594567</v>
+        <v>145.5944631594562</v>
       </c>
       <c r="K6" t="n">
-        <v>248.844127484412</v>
+        <v>248.844127484411</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754981</v>
+        <v>334.6016386754969</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945969</v>
+        <v>390.4643301945954</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519718</v>
+        <v>400.7987591519702</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306786</v>
+        <v>366.6525622306772</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510017</v>
+        <v>294.2710058510006</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.712374346262</v>
+        <v>196.7123743462612</v>
       </c>
       <c r="R6" t="n">
-        <v>95.6796444215807</v>
+        <v>95.67964442158035</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963506</v>
+        <v>28.62413775963495</v>
       </c>
       <c r="T6" t="n">
-        <v>6.21147168857252</v>
+        <v>6.211471688572497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344808</v>
+        <v>0.1013841951344804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970542</v>
+        <v>1.291955972970537</v>
       </c>
       <c r="H7" t="n">
-        <v>11.4866631051381</v>
+        <v>11.48666310513805</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351413</v>
+        <v>38.85263962351398</v>
       </c>
       <c r="J7" t="n">
-        <v>91.3412872890173</v>
+        <v>91.34128728901696</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505775</v>
+        <v>150.1017939505769</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178204</v>
+        <v>192.0786180178197</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902823</v>
+        <v>202.5199712902815</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273922</v>
+        <v>197.7044990273915</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522363</v>
+        <v>182.6121042522356</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036371</v>
+        <v>156.2562024036365</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548333</v>
+        <v>108.1836951548329</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647544</v>
+        <v>58.09103856647522</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258662</v>
+        <v>22.51526909258653</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874132</v>
+        <v>5.520175520874111</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839328</v>
+        <v>0.070470325798393</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496639</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717718</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6279838366857</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963288</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,22 +33734,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34451,13 +34451,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305505</v>
+        <v>63.40697967305411</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973437</v>
+        <v>146.2816544973423</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398795</v>
+        <v>218.7498344398778</v>
       </c>
       <c r="M5" t="n">
-        <v>275.390670146713</v>
+        <v>275.390670146711</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056399</v>
+        <v>284.507191605638</v>
       </c>
       <c r="O5" t="n">
-        <v>255.182112503074</v>
+        <v>255.1821125030721</v>
       </c>
       <c r="P5" t="n">
-        <v>182.942533357419</v>
+        <v>182.9425333574174</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604314</v>
+        <v>88.72288372604194</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649279003</v>
+        <v>18.75683649278949</v>
       </c>
       <c r="K6" t="n">
-        <v>111.002688510053</v>
+        <v>111.002688510052</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956239</v>
+        <v>196.0472588956227</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725786</v>
+        <v>248.3302962725771</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686384</v>
+        <v>269.4570470686369</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862342</v>
+        <v>224.0563177862328</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366714</v>
+        <v>160.2965984366703</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026024044</v>
+        <v>56.73060026023967</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004209</v>
+        <v>21.08853578004152</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658213</v>
+        <v>57.19394173658139</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267723</v>
+        <v>63.59418734267646</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215905</v>
+        <v>70.01895456215829</v>
       </c>
       <c r="O7" t="n">
-        <v>44.1555658003935</v>
+        <v>44.15556580039282</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448949</v>
+        <v>18.52819835448889</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663306</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>191.3582339884385</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899128</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>237.2862717533524</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164546</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
